--- a/Practica_4/Libro1.xlsx
+++ b/Practica_4/Libro1.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Master Informatica\PGPI\repositorio\PGPIproject\Practica_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\PGPIproject\Practica_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Presupuesto por conceptos" sheetId="1" r:id="rId1"/>
+    <sheet name="Presupuesto por tareas" sheetId="2" r:id="rId2"/>
+    <sheet name="Flujo de Caja" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Gastos Elegibles</t>
   </si>
   <si>
-    <t xml:space="preserve">Total contratación personal </t>
-  </si>
-  <si>
     <t xml:space="preserve">   Sueldo</t>
   </si>
   <si>
@@ -53,9 +52,6 @@
     <t xml:space="preserve">      Otro material informatico</t>
   </si>
   <si>
-    <t xml:space="preserve">Costes </t>
-  </si>
-  <si>
     <t xml:space="preserve">      Licencias de software </t>
   </si>
   <si>
@@ -68,16 +64,97 @@
     <t xml:space="preserve">      Servidores</t>
   </si>
   <si>
-    <t>folios Boligrafos Material de Oficina.</t>
+    <t xml:space="preserve">   Material Fungible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Papel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Bolígrafos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Grapadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Cartuchos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Archivadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Post-its</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Outro material de oficina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Consultoría, prestación de servicios, suministros, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Hacker Ético</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Impuestos Hacker Ético</t>
+  </si>
+  <si>
+    <t>GASTOS DE PERSONAL</t>
+  </si>
+  <si>
+    <t>GASTOS COMPLEMENTARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Desplazamiento, viajes, estancias y dietas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Estancias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Viajes y transportes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Difusión y publicidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Congresos, seminarios y otros eventos</t>
+  </si>
+  <si>
+    <t>TOTAL SOLICITADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Otros gastos</t>
+  </si>
+  <si>
+    <t>Bases de Datos</t>
+  </si>
+  <si>
+    <t>Red Neuronal</t>
+  </si>
+  <si>
+    <t>Creación de Servicios</t>
+  </si>
+  <si>
+    <t>Interfaz de Usuario</t>
+  </si>
+  <si>
+    <t>Gestión</t>
+  </si>
+  <si>
+    <t>Contratación</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>INGRESOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -111,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,10 +213,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -142,21 +225,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Moeda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,126 +533,2732 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13">
+        <f>SUM(B4:B5)</f>
+        <v>1598247.1574999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <f>306609.85*3.5-B23</f>
+        <v>1065498.1049999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16">
+        <f>B4/2</f>
+        <v>532749.05249999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <f>SUM(B4:B5)</f>
-        <v>1609701.7124999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <f>306609.85*3.5</f>
-        <v>1073134.4749999999</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B6" s="15">
+        <f>B7+B14+B22</f>
+        <v>40091.221666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
+        <f>SUM(B8:B11)</f>
+        <v>28162.666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18">
+        <f>500*22*(2/3)</f>
+        <v>7333.333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <f>500*22*(2/3)</f>
+        <v>7333.333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <f>SUM(B12:B13)</f>
+        <v>10930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B4/2</f>
-        <v>536567.23749999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <f>SUM(B8:B9)</f>
-        <v>3666.6666666666665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <f>(500/6)*22</f>
-        <v>1833.3333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <f>(500/6)*22</f>
-        <v>1833.3333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B12" s="15">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15">
+        <f>210*24</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <f>SUM(B15:B21)</f>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <f>210*6</f>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="B15" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>14</v>
+      </c>
+      <c r="B16" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <f>SUM(B23:B24)</f>
+        <v>11454.555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f>2181.82*3.5</f>
+        <v>7636.3700000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <f>B23/2</f>
+        <v>3818.1850000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B26+SUM(B29:B31)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <f>SUM(B27:B28)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <f>B3+B6+B25</f>
+        <v>1642838.3791666664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'Presupuesto por conceptos'!B32*0.2</f>
+        <v>328567.67583333328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'Presupuesto por conceptos'!B32*0.1</f>
+        <v>164283.83791666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <f>'Presupuesto por conceptos'!B32*0.233</f>
+        <v>382781.34234583331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <f>'Presupuesto por conceptos'!B32*0.233</f>
+        <v>382781.34234583331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5">
+        <f>'Presupuesto por conceptos'!B32*0.22</f>
+        <v>361424.44341666659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11">
+        <f>'Presupuesto por conceptos'!B32*0.0126</f>
+        <v>20699.763577499998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5">
+        <f>SUM(B3:B8)</f>
+        <v>1640538.4054358331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8">
+        <f>C3</f>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="C3" s="8">
+        <f>1606428.9825/24</f>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:Z3" si="0">1606428.9825/24</f>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="X3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" si="0"/>
+        <v>66934.540937500002</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <f>B3*(2/3)</f>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="C4" s="5">
+        <f>C3*(2/3)</f>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:Z4" si="1">D3*(2/3)</f>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="1"/>
+        <v>44623.027291666665</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <f>B4/2</f>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:Z5" si="2">C4/2</f>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="2"/>
+        <v>22311.513645833333</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <f>B7+B12+B13</f>
+        <v>32316.221666666665</v>
+      </c>
+      <c r="C6" s="8">
+        <f>C7+C12+C13</f>
+        <v>210</v>
+      </c>
+      <c r="D6" s="8">
+        <f>D7+D12+D13</f>
+        <v>210</v>
+      </c>
+      <c r="E6" s="8">
+        <f>E7+E12+E13</f>
+        <v>210</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F7+F12+F13</f>
+        <v>210</v>
+      </c>
+      <c r="G6" s="8">
+        <f>G7+G12+G13</f>
+        <v>210</v>
+      </c>
+      <c r="H6" s="8">
+        <f>H7+H12+H13</f>
+        <v>210</v>
+      </c>
+      <c r="I6" s="8">
+        <f>I7+I12+I13</f>
+        <v>4028.1850000000004</v>
+      </c>
+      <c r="J6" s="8">
+        <f>J7+J12+J13</f>
+        <v>210</v>
+      </c>
+      <c r="K6" s="8">
+        <f>K7+K12+K13</f>
+        <v>210</v>
+      </c>
+      <c r="L6" s="8">
+        <f>L7+L12+L13</f>
+        <v>210</v>
+      </c>
+      <c r="M6" s="8">
+        <f>M7+M12+M13</f>
+        <v>3155</v>
+      </c>
+      <c r="N6" s="8">
+        <f>N7+N12+N13</f>
+        <v>210</v>
+      </c>
+      <c r="O6" s="8">
+        <f>O7+O12+O13</f>
+        <v>210</v>
+      </c>
+      <c r="P6" s="8">
+        <f>P7+P12+P13</f>
+        <v>4028.1850000000004</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>Q7+Q12+Q13</f>
+        <v>210</v>
+      </c>
+      <c r="R6" s="8">
+        <f>R7+R12+R13</f>
+        <v>210</v>
+      </c>
+      <c r="S6" s="8">
+        <f>S7+S12+S13</f>
+        <v>210</v>
+      </c>
+      <c r="T6" s="8">
+        <f>T7+T12+T13</f>
+        <v>210</v>
+      </c>
+      <c r="U6" s="8">
+        <f>U7+U12+U13</f>
+        <v>210</v>
+      </c>
+      <c r="V6" s="8">
+        <f>V7+V12+V13</f>
+        <v>210</v>
+      </c>
+      <c r="W6" s="8">
+        <f>W7+W12+W13</f>
+        <v>210</v>
+      </c>
+      <c r="X6" s="8">
+        <f>X7+X12+X13</f>
+        <v>210</v>
+      </c>
+      <c r="Y6" s="8">
+        <f>Y7+Y12+Y13</f>
+        <v>4028.1850000000004</v>
+      </c>
+      <c r="Z6" s="8">
+        <f>Z7+Z12+Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <f>SUM(B8:B11)</f>
+        <v>20387.666666666664</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:Z7" si="3">SUM(C8:C11)</f>
+        <v>210</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
+        <v>3155</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <f>500*22*(2/3)</f>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <f>500*22*(2/3)</f>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2566</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <f>2945+210</f>
+        <v>3155</v>
+      </c>
+      <c r="C11" s="5">
+        <v>210</v>
+      </c>
+      <c r="D11" s="5">
+        <v>210</v>
+      </c>
+      <c r="E11" s="5">
+        <v>210</v>
+      </c>
+      <c r="F11" s="5">
+        <v>210</v>
+      </c>
+      <c r="G11" s="5">
+        <v>210</v>
+      </c>
+      <c r="H11" s="5">
+        <v>210</v>
+      </c>
+      <c r="I11" s="5">
+        <v>210</v>
+      </c>
+      <c r="J11" s="5">
+        <v>210</v>
+      </c>
+      <c r="K11" s="5">
+        <v>210</v>
+      </c>
+      <c r="L11" s="5">
+        <v>210</v>
+      </c>
+      <c r="M11" s="5">
+        <f>B11</f>
+        <v>3155</v>
+      </c>
+      <c r="N11" s="5">
+        <v>210</v>
+      </c>
+      <c r="O11" s="5">
+        <v>210</v>
+      </c>
+      <c r="P11" s="5">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>210</v>
+      </c>
+      <c r="R11" s="5">
+        <v>210</v>
+      </c>
+      <c r="S11" s="5">
+        <v>210</v>
+      </c>
+      <c r="T11" s="5">
+        <v>210</v>
+      </c>
+      <c r="U11" s="5">
+        <v>210</v>
+      </c>
+      <c r="V11" s="5">
+        <v>210</v>
+      </c>
+      <c r="W11" s="5">
+        <v>210</v>
+      </c>
+      <c r="X11" s="5">
+        <v>210</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>210</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <v>474</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+    </row>
+    <row r="13" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <f>SUM(B14:B15)</f>
+        <v>11454.555</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13:Z13" si="4">SUM(C14:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="4"/>
+        <v>3818.1850000000004</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="4"/>
+        <v>3818.1850000000004</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="4"/>
+        <v>3818.1850000000004</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <f>2181.82*3.5</f>
+        <v>7636.3700000000008</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>2181.82*3.5/3</f>
+        <v>2545.4566666666669</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <f>2181.82*3.5/3</f>
+        <v>2545.4566666666669</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <f>2181.82*3.5/3</f>
+        <v>2545.4566666666669</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <f>B14/2</f>
+        <v>3818.1850000000004</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" ref="C15:Z15" si="5">C14/2</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>1272.7283333333335</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="5"/>
+        <v>1272.7283333333335</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="5"/>
+        <v>1272.7283333333335</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="8">
+        <f>B17+SUM(B20:B22)</f>
+        <v>125</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:Z16" si="6">C17+SUM(C20:C22)</f>
+        <v>125</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="6"/>
+        <v>291.66666666666669</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="6"/>
+        <v>625</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="6"/>
+        <v>291.66666666666669</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="V16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="W16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="6"/>
+        <v>791.66666666666663</v>
+      </c>
+      <c r="Z16" s="8">
+        <f t="shared" si="6"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8">
+        <f>SUM(B18:B19)</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:Z17" si="7">SUM(C18:C19)</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="U17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="X17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" si="7"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <f>750/24</f>
+        <v>31.25</v>
+      </c>
+      <c r="C18" s="5">
+        <f>750/24</f>
+        <v>31.25</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:Z18" si="8">750/24</f>
+        <v>31.25</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="X18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="8"/>
+        <v>31.25</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
+        <f>250/24</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="C19" s="5">
+        <f>250/24</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:Z19" si="9">250/24</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="9"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f>500/3</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <f>500/3</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0</v>
+      </c>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="8">
+        <f>500/3</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>500</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>500</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="8">
+        <f>2000/24</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:Z22" si="10">2000/24</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="U22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="V22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="W22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="X22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Y22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Z22" s="8">
+        <f t="shared" si="10"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <f>B3+B6+B16</f>
+        <v>99375.762604166666</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" ref="C23:Z23" si="11">C3+C6+C16</f>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="11"/>
+        <v>71254.392604166671</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="11"/>
+        <v>70714.540937500002</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="11"/>
+        <v>71254.392604166671</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="V23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="W23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="X23" s="8">
+        <f t="shared" si="11"/>
+        <v>67269.540937500002</v>
+      </c>
+      <c r="Y23" s="8">
+        <f t="shared" si="11"/>
+        <v>71754.392604166671</v>
+      </c>
+      <c r="Z23" s="8">
+        <f t="shared" si="11"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Practica_4/Libro1.xlsx
+++ b/Practica_4/Libro1.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto por conceptos" sheetId="1" r:id="rId1"/>
     <sheet name="Presupuesto por tareas" sheetId="2" r:id="rId2"/>
     <sheet name="Flujo de Caja" sheetId="3" r:id="rId3"/>
+    <sheet name="Valor Actual Neto" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Gastos Elegibles</t>
   </si>
@@ -146,6 +147,21 @@
   </si>
   <si>
     <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>Flujo de caja</t>
+  </si>
+  <si>
+    <t>Interés</t>
+  </si>
+  <si>
+    <t>P/F</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>TIR</t>
   </si>
 </sst>
 </file>
@@ -216,7 +232,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -251,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda [0]" xfId="1" builtinId="7"/>
@@ -909,15 +926,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1013,7 +1031,9 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="N2" s="5">
+        <v>1500000</v>
+      </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1025,7 +1045,9 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="5">
+        <v>1500000</v>
+      </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
@@ -1042,100 +1064,100 @@
         <v>23</v>
       </c>
       <c r="B3" s="8">
-        <f>C3</f>
-        <v>66934.540937500002</v>
+        <f>SUM(B4:B5)</f>
+        <v>-66934.544999999998</v>
       </c>
       <c r="C3" s="8">
-        <f>1606428.9825/24</f>
-        <v>66934.540937500002</v>
+        <f t="shared" ref="C3:Y3" si="0">SUM(C4:C5)</f>
+        <v>-66933.044999999998</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:Z3" si="0">1606428.9825/24</f>
-        <v>66934.540937500002</v>
+        <f t="shared" si="0"/>
+        <v>-66931.544999999998</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66930.044999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66928.544999999998</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66927.044999999998</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66925.544999999998</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66924.044999999998</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66922.544999999998</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66921.044999999998</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66919.544999999998</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66918.044999999998</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66916.544999999998</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66915.044999999998</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66913.544999999998</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66912.044999999998</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66910.544999999998</v>
       </c>
       <c r="S3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66909.044999999998</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66907.544999999998</v>
       </c>
       <c r="U3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66906.044999999998</v>
       </c>
       <c r="V3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66904.544999999998</v>
       </c>
       <c r="W3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66903.044999999998</v>
       </c>
       <c r="X3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66901.544999999998</v>
       </c>
       <c r="Y3" s="8">
         <f t="shared" si="0"/>
-        <v>66934.540937500002</v>
+        <v>-66900.044999999998</v>
       </c>
       <c r="Z3" s="8">
         <v>0</v>
@@ -1156,100 +1178,76 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <f>B3*(2/3)</f>
-        <v>44623.027291666665</v>
+        <v>-44623.03</v>
       </c>
       <c r="C4" s="5">
-        <f>C3*(2/3)</f>
-        <v>44623.027291666665</v>
+        <v>-44622.03</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:Z4" si="1">D3*(2/3)</f>
-        <v>44623.027291666665</v>
+        <v>-44621.03</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44620.03</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44619.03</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44618.03</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44617.03</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44616.03</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44615.03</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44614.03</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44613.03</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44612.03</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44611.03</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44610.03</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44609.03</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44608.03</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44607.03</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44606.03</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44605.03</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44604.03</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44603.03</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44602.03</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44601.03</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="1"/>
-        <v>44623.027291666665</v>
+        <v>-44600.03</v>
       </c>
       <c r="Z4" s="5">
         <v>0</v>
@@ -1271,99 +1269,99 @@
       </c>
       <c r="B5" s="4">
         <f>B4/2</f>
-        <v>22311.513645833333</v>
+        <v>-22311.514999999999</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:Z5" si="2">C4/2</f>
-        <v>22311.513645833333</v>
+        <f t="shared" ref="C5:Y5" si="1">C4/2</f>
+        <v>-22311.014999999999</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22310.514999999999</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22310.014999999999</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22309.514999999999</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22309.014999999999</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22308.514999999999</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22308.014999999999</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22307.514999999999</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22307.014999999999</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22306.514999999999</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22306.014999999999</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22305.514999999999</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22305.014999999999</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22304.514999999999</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22304.014999999999</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22303.514999999999</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22303.014999999999</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22302.514999999999</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22302.014999999999</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22301.514999999999</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22301.014999999999</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22300.514999999999</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="2"/>
-        <v>22311.513645833333</v>
+        <f t="shared" si="1"/>
+        <v>-22300.014999999999</v>
       </c>
       <c r="Z5" s="4">
         <v>0</v>
@@ -1384,103 +1382,103 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <f>B7+B12+B13</f>
-        <v>32316.221666666665</v>
+        <f t="shared" ref="B6:Z6" si="2">B7+B12+B13</f>
+        <v>-32316.221666666665</v>
       </c>
       <c r="C6" s="8">
-        <f>C7+C12+C13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="D6" s="8">
-        <f>D7+D12+D13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="E6" s="8">
-        <f>E7+E12+E13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="F6" s="8">
-        <f>F7+F12+F13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="G6" s="8">
-        <f>G7+G12+G13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="H6" s="8">
-        <f>H7+H12+H13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="I6" s="8">
-        <f>I7+I12+I13</f>
-        <v>4028.1850000000004</v>
+        <f t="shared" si="2"/>
+        <v>-4028.1850000000004</v>
       </c>
       <c r="J6" s="8">
-        <f>J7+J12+J13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="K6" s="8">
-        <f>K7+K12+K13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="L6" s="8">
-        <f>L7+L12+L13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="M6" s="8">
-        <f>M7+M12+M13</f>
-        <v>3155</v>
+        <f t="shared" si="2"/>
+        <v>-3155</v>
       </c>
       <c r="N6" s="8">
-        <f>N7+N12+N13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="O6" s="8">
-        <f>O7+O12+O13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="P6" s="8">
-        <f>P7+P12+P13</f>
-        <v>4028.1850000000004</v>
+        <f t="shared" si="2"/>
+        <v>-4028.1850000000004</v>
       </c>
       <c r="Q6" s="8">
-        <f>Q7+Q12+Q13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="R6" s="8">
-        <f>R7+R12+R13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="S6" s="8">
-        <f>S7+S12+S13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="T6" s="8">
-        <f>T7+T12+T13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="U6" s="8">
-        <f>U7+U12+U13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="V6" s="8">
-        <f>V7+V12+V13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="W6" s="8">
-        <f>W7+W12+W13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="X6" s="8">
-        <f>X7+X12+X13</f>
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>-210</v>
       </c>
       <c r="Y6" s="8">
-        <f>Y7+Y12+Y13</f>
-        <v>4028.1850000000004</v>
+        <f t="shared" si="2"/>
+        <v>-4028.1850000000004</v>
       </c>
       <c r="Z6" s="8">
-        <f>Z7+Z12+Z13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA6" s="5"/>
@@ -1500,99 +1498,99 @@
       </c>
       <c r="B7" s="8">
         <f>SUM(B8:B11)</f>
-        <v>20387.666666666664</v>
+        <v>-20387.666666666664</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" ref="C7:Z7" si="3">SUM(C8:C11)</f>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="3"/>
-        <v>3155</v>
+        <v>-3155</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="Z7" s="8">
         <f t="shared" si="3"/>
@@ -1614,8 +1612,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <f>500*22*(2/3)</f>
-        <v>7333.333333333333</v>
+        <f>-500*22*(2/3)</f>
+        <v>-7333.333333333333</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1705,8 +1703,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <f>500*22*(2/3)</f>
-        <v>7333.333333333333</v>
+        <f>-500*22*(2/3)</f>
+        <v>-7333.333333333333</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -1796,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>2566</v>
+        <v>-2566</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -1886,78 +1884,78 @@
         <v>8</v>
       </c>
       <c r="B11" s="5">
-        <f>2945+210</f>
-        <v>3155</v>
+        <f>-(2945+210)</f>
+        <v>-3155</v>
       </c>
       <c r="C11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="D11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="E11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="F11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="G11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="H11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="I11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="J11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="K11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="L11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="M11" s="5">
         <f>B11</f>
-        <v>3155</v>
+        <v>-3155</v>
       </c>
       <c r="N11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="O11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="P11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="Q11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="R11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="S11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="T11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="U11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="V11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="W11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="X11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="Y11" s="5">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="Z11" s="5">
         <v>0</v>
@@ -1978,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8">
-        <v>474</v>
+        <v>-474</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -2069,7 +2067,7 @@
       </c>
       <c r="B13" s="8">
         <f>SUM(B14:B15)</f>
-        <v>11454.555</v>
+        <v>-11454.555</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" ref="C13:Z13" si="4">SUM(C14:C15)</f>
@@ -2097,7 +2095,7 @@
       </c>
       <c r="I13" s="8">
         <f t="shared" si="4"/>
-        <v>3818.1850000000004</v>
+        <v>-3818.1850000000004</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" si="4"/>
@@ -2125,7 +2123,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" si="4"/>
-        <v>3818.1850000000004</v>
+        <v>-3818.1850000000004</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="4"/>
@@ -2161,7 +2159,7 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="4"/>
-        <v>3818.1850000000004</v>
+        <v>-3818.1850000000004</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" si="4"/>
@@ -2183,8 +2181,8 @@
         <v>21</v>
       </c>
       <c r="B14" s="5">
-        <f>2181.82*3.5</f>
-        <v>7636.3700000000008</v>
+        <f>-2181.82*3.5</f>
+        <v>-7636.3700000000008</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -2205,8 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <f>2181.82*3.5/3</f>
-        <v>2545.4566666666669</v>
+        <f>-2181.82*3.5/3</f>
+        <v>-2545.4566666666669</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -2227,8 +2225,8 @@
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <f>2181.82*3.5/3</f>
-        <v>2545.4566666666669</v>
+        <f>-2181.82*3.5/3</f>
+        <v>-2545.4566666666669</v>
       </c>
       <c r="Q14" s="5">
         <v>0</v>
@@ -2255,8 +2253,8 @@
         <v>0</v>
       </c>
       <c r="Y14" s="5">
-        <f>2181.82*3.5/3</f>
-        <v>2545.4566666666669</v>
+        <f>-2181.82*3.5/3</f>
+        <v>-2545.4566666666669</v>
       </c>
       <c r="Z14" s="5">
         <v>0</v>
@@ -2278,7 +2276,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14/2</f>
-        <v>3818.1850000000004</v>
+        <v>-3818.1850000000004</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" ref="C15:Z15" si="5">C14/2</f>
@@ -2305,8 +2303,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="5"/>
-        <v>1272.7283333333335</v>
+        <f>I14/2</f>
+        <v>-1272.7283333333335</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="5"/>
@@ -2333,8 +2331,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="5"/>
-        <v>1272.7283333333335</v>
+        <f>P14/2</f>
+        <v>-1272.7283333333335</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="5"/>
@@ -2369,8 +2367,8 @@
         <v>0</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="5"/>
-        <v>1272.7283333333335</v>
+        <f>Y14/2</f>
+        <v>-1272.7283333333335</v>
       </c>
       <c r="Z15" s="5">
         <f t="shared" si="5"/>
@@ -2393,103 +2391,103 @@
       </c>
       <c r="B16" s="8">
         <f>B17+SUM(B20:B22)</f>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" ref="C16:Z16" si="6">C17+SUM(C20:C22)</f>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="6"/>
-        <v>291.66666666666669</v>
+        <v>-291.66666666666669</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="6"/>
-        <v>625</v>
+        <v>-625</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="6"/>
-        <v>291.66666666666669</v>
+        <v>-291.66666666666669</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>-125</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
-        <v>791.66666666666663</v>
+        <v>-791.66666666666663</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" si="6"/>
-        <v>83.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
@@ -2508,99 +2506,99 @@
       </c>
       <c r="B17" s="8">
         <f>SUM(B18:B19)</f>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" ref="C17:Z17" si="7">SUM(C18:C19)</f>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="7"/>
-        <v>41.666666666666664</v>
+        <v>-41.666666666666664</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" si="7"/>
@@ -2622,100 +2620,100 @@
         <v>27</v>
       </c>
       <c r="B18" s="5">
-        <f>750/24</f>
-        <v>31.25</v>
+        <f>-750/24</f>
+        <v>-31.25</v>
       </c>
       <c r="C18" s="5">
-        <f>750/24</f>
-        <v>31.25</v>
+        <f t="shared" ref="C18:Y18" si="8">-750/24</f>
+        <v>-31.25</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ref="D18:Z18" si="8">750/24</f>
-        <v>31.25</v>
+        <f t="shared" si="8"/>
+        <v>-31.25</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="T18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="U18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="V18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="W18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="X18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="Y18" s="5">
         <f t="shared" si="8"/>
-        <v>31.25</v>
+        <v>-31.25</v>
       </c>
       <c r="Z18" s="5">
         <v>0</v>
@@ -2736,100 +2734,100 @@
         <v>26</v>
       </c>
       <c r="B19" s="5">
-        <f>250/24</f>
-        <v>10.416666666666666</v>
+        <f>-250/24</f>
+        <v>-10.416666666666666</v>
       </c>
       <c r="C19" s="5">
-        <f>250/24</f>
-        <v>10.416666666666666</v>
+        <f t="shared" ref="C19:Y19" si="9">-250/24</f>
+        <v>-10.416666666666666</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ref="D19:Z19" si="9">250/24</f>
-        <v>10.416666666666666</v>
+        <f t="shared" si="9"/>
+        <v>-10.416666666666666</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="U19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="V19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="W19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="X19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="Y19" s="5">
         <f t="shared" si="9"/>
-        <v>10.416666666666666</v>
+        <v>-10.416666666666666</v>
       </c>
       <c r="Z19" s="5">
         <v>0</v>
@@ -2871,8 +2869,8 @@
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <f>500/3</f>
-        <v>166.66666666666666</v>
+        <f>-500/3</f>
+        <v>-166.66666666666666</v>
       </c>
       <c r="J20" s="8">
         <v>0</v>
@@ -2893,8 +2891,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="8">
-        <f>500/3</f>
-        <v>166.66666666666666</v>
+        <f>-500/3</f>
+        <v>-166.66666666666666</v>
       </c>
       <c r="Q20" s="8">
         <v>0</v>
@@ -2921,8 +2919,8 @@
         <v>0</v>
       </c>
       <c r="Y20" s="8">
-        <f>500/3</f>
-        <v>166.66666666666666</v>
+        <f>-500/3</f>
+        <v>-166.66666666666666</v>
       </c>
       <c r="Z20" s="8">
         <v>0</v>
@@ -2976,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="8">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="N21" s="8">
         <v>0</v>
@@ -3012,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="8">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="Z21" s="8">
         <v>0</v>
@@ -3033,104 +3031,103 @@
         <v>31</v>
       </c>
       <c r="B22" s="8">
-        <f>2000/24</f>
-        <v>83.333333333333329</v>
+        <f>-2000/24</f>
+        <v>-83.333333333333329</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:Z22" si="10">2000/24</f>
-        <v>83.333333333333329</v>
+        <f t="shared" ref="C22:Z22" si="10">-2000/24</f>
+        <v>-83.333333333333329</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>-83.333333333333329</v>
       </c>
       <c r="Z22" s="8">
-        <f t="shared" si="10"/>
-        <v>83.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
@@ -3149,103 +3146,103 @@
       </c>
       <c r="B23" s="8">
         <f>B3+B6+B16</f>
-        <v>99375.762604166666</v>
+        <v>-99375.766666666663</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" ref="C23:Z23" si="11">C3+C6+C16</f>
-        <v>67269.540937500002</v>
+        <v>-67268.044999999998</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67266.544999999998</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67265.044999999998</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67263.544999999998</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67262.044999999998</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67260.544999999998</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="11"/>
-        <v>71254.392604166671</v>
+        <v>-71243.896666666667</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67257.544999999998</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67256.044999999998</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67254.544999999998</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="11"/>
-        <v>70714.540937500002</v>
+        <v>-70698.044999999998</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <f>N3+N6+N16+N2</f>
+        <v>1432748.4550000001</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67250.044999999998</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="11"/>
-        <v>71254.392604166671</v>
+        <v>-71233.396666666667</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67247.044999999998</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67245.544999999998</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67244.044999999998</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67242.544999999998</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67241.044999999998</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67239.544999999998</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67238.044999999998</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="11"/>
-        <v>67269.540937500002</v>
+        <v>-67236.544999999998</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="11"/>
-        <v>71754.392604166671</v>
+        <v>-71719.896666666667</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="11"/>
-        <v>83.333333333333329</v>
+        <f>Z2</f>
+        <v>1500000</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
@@ -3260,5 +3257,412 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="str">
+        <f>'Flujo de Caja'!A23</f>
+        <v>TOTAL SOLICITADO</v>
+      </c>
+      <c r="B1" s="8">
+        <f>'Flujo de Caja'!B23</f>
+        <v>-99375.766666666663</v>
+      </c>
+      <c r="C1" s="8">
+        <f>'Flujo de Caja'!C23</f>
+        <v>-67268.044999999998</v>
+      </c>
+      <c r="D1" s="8">
+        <f>'Flujo de Caja'!D23</f>
+        <v>-67266.544999999998</v>
+      </c>
+      <c r="E1" s="8">
+        <f>'Flujo de Caja'!E23</f>
+        <v>-67265.044999999998</v>
+      </c>
+      <c r="F1" s="8">
+        <f>'Flujo de Caja'!F23</f>
+        <v>-67263.544999999998</v>
+      </c>
+      <c r="G1" s="8">
+        <f>'Flujo de Caja'!G23</f>
+        <v>-67262.044999999998</v>
+      </c>
+      <c r="H1" s="8">
+        <f>'Flujo de Caja'!H23</f>
+        <v>-67260.544999999998</v>
+      </c>
+      <c r="I1" s="8">
+        <f>'Flujo de Caja'!I23</f>
+        <v>-71243.896666666667</v>
+      </c>
+      <c r="J1" s="8">
+        <f>'Flujo de Caja'!J23</f>
+        <v>-67257.544999999998</v>
+      </c>
+      <c r="K1" s="8">
+        <f>'Flujo de Caja'!K23</f>
+        <v>-67256.044999999998</v>
+      </c>
+      <c r="L1" s="8">
+        <f>'Flujo de Caja'!L23</f>
+        <v>-67254.544999999998</v>
+      </c>
+      <c r="M1" s="8">
+        <f>'Flujo de Caja'!M23</f>
+        <v>-70698.044999999998</v>
+      </c>
+      <c r="N1" s="8">
+        <f>'Flujo de Caja'!N23</f>
+        <v>1432748.4550000001</v>
+      </c>
+      <c r="O1" s="8">
+        <f>'Flujo de Caja'!O23</f>
+        <v>-67250.044999999998</v>
+      </c>
+      <c r="P1" s="8">
+        <f>'Flujo de Caja'!P23</f>
+        <v>-71233.396666666667</v>
+      </c>
+      <c r="Q1" s="8">
+        <f>'Flujo de Caja'!Q23</f>
+        <v>-67247.044999999998</v>
+      </c>
+      <c r="R1" s="8">
+        <f>'Flujo de Caja'!R23</f>
+        <v>-67245.544999999998</v>
+      </c>
+      <c r="S1" s="8">
+        <f>'Flujo de Caja'!S23</f>
+        <v>-67244.044999999998</v>
+      </c>
+      <c r="T1" s="8">
+        <f>'Flujo de Caja'!T23</f>
+        <v>-67242.544999999998</v>
+      </c>
+      <c r="U1" s="8">
+        <f>'Flujo de Caja'!U23</f>
+        <v>-67241.044999999998</v>
+      </c>
+      <c r="V1" s="8">
+        <f>'Flujo de Caja'!V23</f>
+        <v>-67239.544999999998</v>
+      </c>
+      <c r="W1" s="8">
+        <f>'Flujo de Caja'!W23</f>
+        <v>-67238.044999999998</v>
+      </c>
+      <c r="X1" s="8">
+        <f>'Flujo de Caja'!X23</f>
+        <v>-67236.544999999998</v>
+      </c>
+      <c r="Y1" s="8">
+        <f>'Flujo de Caja'!Y23</f>
+        <v>-71719.896666666667</v>
+      </c>
+      <c r="Z1" s="8">
+        <f>'Flujo de Caja'!Z23</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>22</v>
+      </c>
+      <c r="Y2">
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5">
+        <f>B1</f>
+        <v>-99375.766666666663</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3+C1</f>
+        <v>-166643.81166666665</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:Z3" si="0">C3+D1</f>
+        <v>-233910.35666666663</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>-301175.40166666661</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>-368438.9466666666</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>-435700.99166666658</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>-502961.53666666656</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>-574205.43333333323</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
+        <v>-641462.97833333327</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="0"/>
+        <v>-708719.02333333332</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>-775973.56833333336</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>-846671.6133333334</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>586076.84166666667</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>518826.79666666669</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="0"/>
+        <v>447593.4</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>380346.35500000004</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="0"/>
+        <v>313100.81000000006</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="0"/>
+        <v>245856.76500000007</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="0"/>
+        <v>178614.22000000009</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>111373.17500000009</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="0"/>
+        <v>44133.630000000092</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="0"/>
+        <v>-23104.414999999906</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="0"/>
+        <v>-90340.959999999905</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="0"/>
+        <v>-162060.85666666657</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="0"/>
+        <v>1337939.1433333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="20">
+        <v>8.1500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B3</f>
+        <v>-99375.766666666663</v>
+      </c>
+      <c r="E7" s="5">
+        <f>E3/(1+B5)</f>
+        <v>-278479.33579904452</v>
+      </c>
+      <c r="H7" s="5">
+        <f>H3/(1+B5)^2</f>
+        <v>-430013.14005771134</v>
+      </c>
+      <c r="K7" s="5">
+        <f>K3/(1+B5)^3</f>
+        <v>-560266.32374768809</v>
+      </c>
+      <c r="N7" s="5">
+        <f>N3/(1+B5)^4</f>
+        <v>428399.01720305212</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>Q3/(1+B5)^5</f>
+        <v>257067.18374026328</v>
+      </c>
+      <c r="T7" s="5">
+        <f>T3/(1+B5)^6</f>
+        <v>111623.8220132303</v>
+      </c>
+      <c r="W7" s="5">
+        <f>W3/(1+B5)^7</f>
+        <v>-13350.862105201244</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>Z3/(1+B5)^8</f>
+        <v>714865.2225942876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8">
+        <f>SUM(B7:Z7)</f>
+        <v>130469.81717452162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.1057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Practica_4/Libro1.xlsx
+++ b/Practica_4/Libro1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto por conceptos" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -267,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda [0]" xfId="1" builtinId="7"/>
@@ -552,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +577,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM(B4:B5)</f>
-        <v>1598247.1574999997</v>
+        <v>1602542.6549999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +586,7 @@
       </c>
       <c r="B4" s="15">
         <f>306609.85*3.5-B23</f>
-        <v>1065498.1049999997</v>
+        <v>1068361.7699999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +595,7 @@
       </c>
       <c r="B5" s="16">
         <f>B4/2</f>
-        <v>532749.05249999987</v>
+        <v>534180.88499999989</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +604,7 @@
       </c>
       <c r="B6" s="15">
         <f>B7+B14+B22</f>
-        <v>40091.221666666665</v>
+        <v>35795.724166666667</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -738,7 +739,7 @@
       </c>
       <c r="B22" s="8">
         <f>SUM(B23:B24)</f>
-        <v>11454.555</v>
+        <v>7159.0574999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,8 +747,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <f>2181.82*3.5</f>
-        <v>7636.3700000000008</v>
+        <f>1363.63*3.5</f>
+        <v>4772.7049999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +757,7 @@
       </c>
       <c r="B24" s="5">
         <f>B23/2</f>
-        <v>3818.1850000000004</v>
+        <v>2386.3525</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1383,7 +1386,7 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" ref="B6:Z6" si="2">B7+B12+B13</f>
-        <v>-32316.221666666665</v>
+        <v>-20861.666666666664</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="2"/>
@@ -1411,7 +1414,7 @@
       </c>
       <c r="I6" s="8">
         <f t="shared" si="2"/>
-        <v>-4028.1850000000004</v>
+        <v>-2596.3700000000003</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
@@ -1439,7 +1442,7 @@
       </c>
       <c r="P6" s="8">
         <f t="shared" si="2"/>
-        <v>-4028.1850000000004</v>
+        <v>-2596.3700000000003</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="2"/>
@@ -1475,7 +1478,7 @@
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="2"/>
-        <v>-4028.1850000000004</v>
+        <v>-2596.3700000000003</v>
       </c>
       <c r="Z6" s="8">
         <f t="shared" si="2"/>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="B13" s="8">
         <f>SUM(B14:B15)</f>
-        <v>-11454.555</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" ref="C13:Z13" si="4">SUM(C14:C15)</f>
@@ -2095,7 +2098,7 @@
       </c>
       <c r="I13" s="8">
         <f t="shared" si="4"/>
-        <v>-3818.1850000000004</v>
+        <v>-2386.3700000000003</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" si="4"/>
@@ -2123,7 +2126,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" si="4"/>
-        <v>-3818.1850000000004</v>
+        <v>-2386.3700000000003</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="4"/>
@@ -2159,7 +2162,7 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="4"/>
-        <v>-3818.1850000000004</v>
+        <v>-2386.3700000000003</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" si="4"/>
@@ -2181,8 +2184,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="5">
-        <f>-2181.82*3.5</f>
-        <v>-7636.3700000000008</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -2203,8 +2205,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <f>-2181.82*3.5/3</f>
-        <v>-2545.4566666666669</v>
+        <f>-1363.64*3.5/3</f>
+        <v>-1590.9133333333336</v>
       </c>
       <c r="J14" s="5">
         <v>0</v>
@@ -2225,8 +2227,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="5">
-        <f>-2181.82*3.5/3</f>
-        <v>-2545.4566666666669</v>
+        <v>-1590.9133333333336</v>
       </c>
       <c r="Q14" s="5">
         <v>0</v>
@@ -2253,8 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="5">
-        <f>-2181.82*3.5/3</f>
-        <v>-2545.4566666666669</v>
+        <v>-1590.9133333333336</v>
       </c>
       <c r="Z14" s="5">
         <v>0</v>
@@ -2275,8 +2275,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="5">
-        <f>B14/2</f>
-        <v>-3818.1850000000004</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" ref="C15:Z15" si="5">C14/2</f>
@@ -2304,7 +2303,7 @@
       </c>
       <c r="I15" s="5">
         <f>I14/2</f>
-        <v>-1272.7283333333335</v>
+        <v>-795.45666666666682</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="5"/>
@@ -2332,7 +2331,7 @@
       </c>
       <c r="P15" s="5">
         <f>P14/2</f>
-        <v>-1272.7283333333335</v>
+        <v>-795.45666666666682</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="5"/>
@@ -2368,7 +2367,7 @@
       </c>
       <c r="Y15" s="5">
         <f>Y14/2</f>
-        <v>-1272.7283333333335</v>
+        <v>-795.45666666666682</v>
       </c>
       <c r="Z15" s="5">
         <f t="shared" si="5"/>
@@ -3035,7 +3034,7 @@
         <v>-83.333333333333329</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:Z22" si="10">-2000/24</f>
+        <f t="shared" ref="C22:Y22" si="10">-2000/24</f>
         <v>-83.333333333333329</v>
       </c>
       <c r="D22" s="8">
@@ -3146,10 +3145,10 @@
       </c>
       <c r="B23" s="8">
         <f>B3+B6+B16</f>
-        <v>-99375.766666666663</v>
+        <v>-87921.21166666667</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:Z23" si="11">C3+C6+C16</f>
+        <f t="shared" ref="C23:Y23" si="11">C3+C6+C16</f>
         <v>-67268.044999999998</v>
       </c>
       <c r="D23" s="8">
@@ -3174,7 +3173,7 @@
       </c>
       <c r="I23" s="8">
         <f t="shared" si="11"/>
-        <v>-71243.896666666667</v>
+        <v>-69812.081666666665</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" si="11"/>
@@ -3202,7 +3201,7 @@
       </c>
       <c r="P23" s="8">
         <f t="shared" si="11"/>
-        <v>-71233.396666666667</v>
+        <v>-69801.581666666665</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="11"/>
@@ -3238,7 +3237,7 @@
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="11"/>
-        <v>-71719.896666666667</v>
+        <v>-70288.081666666665</v>
       </c>
       <c r="Z23" s="8">
         <f>Z2</f>
@@ -3265,8 +3264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3285,7 @@
       </c>
       <c r="B1" s="8">
         <f>'Flujo de Caja'!B23</f>
-        <v>-99375.766666666663</v>
+        <v>-87921.21166666667</v>
       </c>
       <c r="C1" s="8">
         <f>'Flujo de Caja'!C23</f>
@@ -3314,7 +3313,7 @@
       </c>
       <c r="I1" s="8">
         <f>'Flujo de Caja'!I23</f>
-        <v>-71243.896666666667</v>
+        <v>-69812.081666666665</v>
       </c>
       <c r="J1" s="8">
         <f>'Flujo de Caja'!J23</f>
@@ -3342,7 +3341,7 @@
       </c>
       <c r="P1" s="8">
         <f>'Flujo de Caja'!P23</f>
-        <v>-71233.396666666667</v>
+        <v>-69801.581666666665</v>
       </c>
       <c r="Q1" s="8">
         <f>'Flujo de Caja'!Q23</f>
@@ -3378,7 +3377,7 @@
       </c>
       <c r="Y1" s="8">
         <f>'Flujo de Caja'!Y23</f>
-        <v>-71719.896666666667</v>
+        <v>-70288.081666666665</v>
       </c>
       <c r="Z1" s="8">
         <f>'Flujo de Caja'!Z23</f>
@@ -3468,103 +3467,103 @@
       </c>
       <c r="B3" s="5">
         <f>B1</f>
-        <v>-99375.766666666663</v>
+        <v>-87921.21166666667</v>
       </c>
       <c r="C3" s="5">
         <f>B3+C1</f>
-        <v>-166643.81166666665</v>
+        <v>-155189.25666666665</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:Z3" si="0">C3+D1</f>
-        <v>-233910.35666666663</v>
+        <v>-222455.80166666664</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>-301175.40166666661</v>
+        <v>-289720.84666666662</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>-368438.9466666666</v>
+        <v>-356984.3916666666</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>-435700.99166666658</v>
+        <v>-424246.43666666659</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>-502961.53666666656</v>
+        <v>-491506.98166666657</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>-574205.43333333323</v>
+        <v>-561319.06333333324</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="0"/>
-        <v>-641462.97833333327</v>
+        <v>-628576.60833333328</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="0"/>
-        <v>-708719.02333333332</v>
+        <v>-695832.65333333332</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="0"/>
-        <v>-775973.56833333336</v>
+        <v>-763087.19833333336</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>-846671.6133333334</v>
+        <v>-833785.2433333334</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="0"/>
-        <v>586076.84166666667</v>
+        <v>598963.21166666667</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>518826.79666666669</v>
+        <v>531713.16666666663</v>
       </c>
       <c r="P3" s="5">
         <f t="shared" si="0"/>
-        <v>447593.4</v>
+        <v>461911.58499999996</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" si="0"/>
-        <v>380346.35500000004</v>
+        <v>394664.54</v>
       </c>
       <c r="R3" s="5">
         <f t="shared" si="0"/>
-        <v>313100.81000000006</v>
+        <v>327418.995</v>
       </c>
       <c r="S3" s="5">
         <f t="shared" si="0"/>
-        <v>245856.76500000007</v>
+        <v>260174.95</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="0"/>
-        <v>178614.22000000009</v>
+        <v>192932.40500000003</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" si="0"/>
-        <v>111373.17500000009</v>
+        <v>125691.36000000003</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" si="0"/>
-        <v>44133.630000000092</v>
+        <v>58451.815000000031</v>
       </c>
       <c r="W3" s="5">
         <f t="shared" si="0"/>
-        <v>-23104.414999999906</v>
+        <v>-8786.2299999999668</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="0"/>
-        <v>-90340.959999999905</v>
+        <v>-76022.774999999965</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="0"/>
-        <v>-162060.85666666657</v>
+        <v>-146310.85666666663</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
-        <v>1337939.1433333335</v>
+        <v>1353689.1433333333</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -3581,39 +3580,39 @@
       </c>
       <c r="B7" s="5">
         <f>B3</f>
-        <v>-99375.766666666663</v>
+        <v>-87921.21166666667</v>
       </c>
       <c r="E7" s="5">
         <f>E3/(1+B5)</f>
-        <v>-278479.33579904452</v>
+        <v>-267887.97657574352</v>
       </c>
       <c r="H7" s="5">
         <f>H3/(1+B5)^2</f>
-        <v>-430013.14005771134</v>
+        <v>-420219.92764596752</v>
       </c>
       <c r="K7" s="5">
         <f>K3/(1+B5)^3</f>
-        <v>-560266.32374768809</v>
+        <v>-550079.21304703911</v>
       </c>
       <c r="N7" s="5">
         <f>N3/(1+B5)^4</f>
-        <v>428399.01720305212</v>
+        <v>437818.44457304658</v>
       </c>
       <c r="Q7" s="5">
         <f>Q3/(1+B5)^5</f>
-        <v>257067.18374026328</v>
+        <v>266744.50927746232</v>
       </c>
       <c r="T7" s="5">
         <f>T3/(1+B5)^6</f>
-        <v>111623.8220132303</v>
+        <v>120571.8807623741</v>
       </c>
       <c r="W7" s="5">
         <f>W3/(1+B5)^7</f>
-        <v>-13350.862105201244</v>
+        <v>-5077.1138396961087</v>
       </c>
       <c r="Z7" s="5">
         <f>Z3/(1+B5)^8</f>
-        <v>714865.2225942876</v>
+        <v>723280.49866417598</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -3651,7 +3650,7 @@
       </c>
       <c r="B10" s="8">
         <f>SUM(B7:Z7)</f>
-        <v>130469.81717452162</v>
+        <v>217229.89050194598</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -3659,7 +3658,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="20">
-        <v>0.1057</v>
+        <v>0.12255000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Practica_4/Libro1.xlsx
+++ b/Practica_4/Libro1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto por conceptos" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -269,6 +269,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda [0]" xfId="1" builtinId="7"/>
@@ -553,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +839,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,8 +906,8 @@
         <v>37</v>
       </c>
       <c r="B8" s="11">
-        <f>'Presupuesto por conceptos'!B32*0.0126</f>
-        <v>20699.763577499998</v>
+        <f>'Presupuesto por conceptos'!B32*0.014</f>
+        <v>22999.73730833333</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +916,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(B3:B8)</f>
-        <v>1640538.4054358331</v>
+        <v>1642838.3791666667</v>
       </c>
     </row>
   </sheetData>
@@ -927,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +940,7 @@
     <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1022,7 +1024,9 @@
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>-100000</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1049,9 +1053,12 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="AA2" s="5"/>
+        <f>1500000+AA2</f>
+        <v>1687159.6400000001</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>187159.64</v>
+      </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -1072,95 +1079,95 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:Y3" si="0">SUM(C4:C5)</f>
-        <v>-66933.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" si="0"/>
-        <v>-66931.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" si="0"/>
-        <v>-66930.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>-66928.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="0"/>
-        <v>-66927.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" si="0"/>
-        <v>-66925.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>-66924.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" si="0"/>
-        <v>-66922.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" si="0"/>
-        <v>-66921.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="0"/>
-        <v>-66919.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" si="0"/>
-        <v>-66918.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" si="0"/>
-        <v>-66916.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="0"/>
-        <v>-66915.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" si="0"/>
-        <v>-66913.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" si="0"/>
-        <v>-66912.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" si="0"/>
-        <v>-66910.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="S3" s="8">
         <f t="shared" si="0"/>
-        <v>-66909.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" si="0"/>
-        <v>-66907.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="U3" s="8">
         <f t="shared" si="0"/>
-        <v>-66906.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="V3" s="8">
         <f t="shared" si="0"/>
-        <v>-66904.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="W3" s="8">
         <f t="shared" si="0"/>
-        <v>-66903.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="X3" s="8">
         <f t="shared" si="0"/>
-        <v>-66901.544999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="Y3" s="8">
         <f t="shared" si="0"/>
-        <v>-66900.044999999998</v>
+        <v>-66934.544999999998</v>
       </c>
       <c r="Z3" s="8">
         <v>0</v>
@@ -1184,73 +1191,96 @@
         <v>-44623.03</v>
       </c>
       <c r="C4" s="5">
-        <v>-44622.03</v>
+        <f>B4</f>
+        <v>-44623.03</v>
       </c>
       <c r="D4" s="5">
-        <v>-44621.03</v>
+        <f t="shared" ref="D4:Y4" si="1">C4</f>
+        <v>-44623.03</v>
       </c>
       <c r="E4" s="5">
-        <v>-44620.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="F4" s="5">
-        <v>-44619.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="G4" s="5">
-        <v>-44618.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="H4" s="5">
-        <v>-44617.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="I4" s="5">
-        <v>-44616.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="J4" s="5">
-        <v>-44615.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="K4" s="5">
-        <v>-44614.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="L4" s="5">
-        <v>-44613.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="M4" s="5">
-        <v>-44612.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="N4" s="5">
-        <v>-44611.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="O4" s="5">
-        <v>-44610.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="P4" s="5">
-        <v>-44609.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="Q4" s="5">
-        <v>-44608.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="R4" s="5">
-        <v>-44607.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="S4" s="5">
-        <v>-44606.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="T4" s="5">
-        <v>-44605.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="U4" s="5">
-        <v>-44604.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="V4" s="5">
-        <v>-44603.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="W4" s="5">
-        <v>-44602.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="X4" s="5">
-        <v>-44601.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="Y4" s="5">
-        <v>-44600.03</v>
+        <f t="shared" si="1"/>
+        <v>-44623.03</v>
       </c>
       <c r="Z4" s="5">
         <v>0</v>
@@ -1275,96 +1305,96 @@
         <v>-22311.514999999999</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:Y5" si="1">C4/2</f>
-        <v>-22311.014999999999</v>
+        <f t="shared" ref="C5:Y5" si="2">C4/2</f>
+        <v>-22311.514999999999</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22310.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22310.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22309.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22309.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22308.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22308.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22307.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22307.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22306.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22306.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22305.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22305.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22304.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22304.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22303.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22303.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22302.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22302.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22301.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22301.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22300.514999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="1"/>
-        <v>-22300.014999999999</v>
+        <f t="shared" si="2"/>
+        <v>-22311.514999999999</v>
       </c>
       <c r="Z5" s="4">
         <v>0</v>
@@ -1385,103 +1415,103 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:Z6" si="2">B7+B12+B13</f>
+        <f t="shared" ref="B6:Z6" si="3">B7+B12+B13</f>
         <v>-20861.666666666664</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2596.3700000000003</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3155</v>
       </c>
       <c r="N6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="P6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2596.3700000000003</v>
       </c>
       <c r="Q6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="R6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="S6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="T6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="U6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="V6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="W6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="X6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="Y6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2596.3700000000003</v>
       </c>
       <c r="Z6" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA6" s="5"/>
@@ -1504,99 +1534,99 @@
         <v>-20387.666666666664</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" ref="C7:Z7" si="3">SUM(C8:C11)</f>
+        <f t="shared" ref="C7:Z7" si="4">SUM(C8:C11)</f>
         <v>-210</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3155</v>
       </c>
       <c r="N7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="S7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="T7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="V7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="X7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="Y7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-210</v>
       </c>
       <c r="Z7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA7" s="5"/>
@@ -2073,99 +2103,99 @@
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" ref="C13:Z13" si="4">SUM(C14:C15)</f>
+        <f t="shared" ref="C13:Z13" si="5">SUM(C14:C15)</f>
         <v>0</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2386.3700000000003</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2386.3700000000003</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2386.3700000000003</v>
       </c>
       <c r="Z13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="5"/>
@@ -2278,27 +2308,27 @@
         <v>0</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:Z15" si="5">C14/2</f>
+        <f t="shared" ref="C15:Z15" si="6">C14/2</f>
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="5">
@@ -2306,27 +2336,27 @@
         <v>-795.45666666666682</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P15" s="5">
@@ -2334,35 +2364,35 @@
         <v>-795.45666666666682</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y15" s="5">
@@ -2370,7 +2400,7 @@
         <v>-795.45666666666682</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA15" s="5"/>
@@ -2393,99 +2423,99 @@
         <v>-125</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" ref="C16:Z16" si="6">C17+SUM(C20:C22)</f>
+        <f t="shared" ref="C16:Z16" si="7">C17+SUM(C20:C22)</f>
         <v>-125</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-291.66666666666669</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-625</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-291.66666666666669</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="S16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="T16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="U16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="V16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="X16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-125</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-791.66666666666663</v>
       </c>
       <c r="Z16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA16" s="5"/>
@@ -2508,99 +2538,99 @@
         <v>-41.666666666666664</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" ref="C17:Z17" si="7">SUM(C18:C19)</f>
+        <f t="shared" ref="C17:Z17" si="8">SUM(C18:C19)</f>
         <v>-41.666666666666664</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="W17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="X17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="Y17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-41.666666666666664</v>
       </c>
       <c r="Z17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA17" s="5"/>
@@ -2623,95 +2653,95 @@
         <v>-31.25</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:Y18" si="8">-750/24</f>
+        <f t="shared" ref="C18:Y18" si="9">-750/24</f>
         <v>-31.25</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-31.25</v>
       </c>
       <c r="Z18" s="5">
@@ -2737,95 +2767,95 @@
         <v>-10.416666666666666</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ref="C19:Y19" si="9">-250/24</f>
+        <f t="shared" ref="C19:Y19" si="10">-250/24</f>
         <v>-10.416666666666666</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.416666666666666</v>
       </c>
       <c r="Z19" s="5">
@@ -3034,95 +3064,95 @@
         <v>-83.333333333333329</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:Y22" si="10">-2000/24</f>
+        <f t="shared" ref="C22:Y22" si="11">-2000/24</f>
         <v>-83.333333333333329</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="V22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="X22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="Y22" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="Z22" s="8">
@@ -3144,104 +3174,104 @@
         <v>30</v>
       </c>
       <c r="B23" s="8">
-        <f>B3+B6+B16</f>
-        <v>-87921.21166666667</v>
+        <f>B3+B6+B16+B2</f>
+        <v>-187921.21166666667</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:Y23" si="11">C3+C6+C16</f>
-        <v>-67268.044999999998</v>
+        <f t="shared" ref="C23:Y23" si="12">C3+C6+C16</f>
+        <v>-67269.544999999998</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67266.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67265.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67263.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67262.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67260.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="11"/>
-        <v>-69812.081666666665</v>
+        <f t="shared" si="12"/>
+        <v>-69822.581666666665</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67257.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67256.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67254.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="11"/>
-        <v>-70698.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-70714.544999999998</v>
       </c>
       <c r="N23" s="8">
         <f>N3+N6+N16+N2</f>
-        <v>1432748.4550000001</v>
+        <v>1432730.4550000001</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67250.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="11"/>
-        <v>-69801.581666666665</v>
+        <f t="shared" si="12"/>
+        <v>-69822.581666666665</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67247.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67245.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67244.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67242.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67241.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67239.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67238.044999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="11"/>
-        <v>-67236.544999999998</v>
+        <f t="shared" si="12"/>
+        <v>-67269.544999999998</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="11"/>
-        <v>-70288.081666666665</v>
+        <f t="shared" si="12"/>
+        <v>-70322.581666666665</v>
       </c>
       <c r="Z23" s="8">
         <f>Z2</f>
-        <v>1500000</v>
+        <v>1687159.6400000001</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
@@ -3262,10 +3292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,103 +3315,103 @@
       </c>
       <c r="B1" s="8">
         <f>'Flujo de Caja'!B23</f>
-        <v>-87921.21166666667</v>
+        <v>-187921.21166666667</v>
       </c>
       <c r="C1" s="8">
         <f>'Flujo de Caja'!C23</f>
-        <v>-67268.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="D1" s="8">
         <f>'Flujo de Caja'!D23</f>
-        <v>-67266.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="E1" s="8">
         <f>'Flujo de Caja'!E23</f>
-        <v>-67265.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="F1" s="8">
         <f>'Flujo de Caja'!F23</f>
-        <v>-67263.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="G1" s="8">
         <f>'Flujo de Caja'!G23</f>
-        <v>-67262.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="H1" s="8">
         <f>'Flujo de Caja'!H23</f>
-        <v>-67260.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="I1" s="8">
         <f>'Flujo de Caja'!I23</f>
-        <v>-69812.081666666665</v>
+        <v>-69822.581666666665</v>
       </c>
       <c r="J1" s="8">
         <f>'Flujo de Caja'!J23</f>
-        <v>-67257.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="K1" s="8">
         <f>'Flujo de Caja'!K23</f>
-        <v>-67256.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="L1" s="8">
         <f>'Flujo de Caja'!L23</f>
-        <v>-67254.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="M1" s="8">
         <f>'Flujo de Caja'!M23</f>
-        <v>-70698.044999999998</v>
+        <v>-70714.544999999998</v>
       </c>
       <c r="N1" s="8">
         <f>'Flujo de Caja'!N23</f>
-        <v>1432748.4550000001</v>
+        <v>1432730.4550000001</v>
       </c>
       <c r="O1" s="8">
         <f>'Flujo de Caja'!O23</f>
-        <v>-67250.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="P1" s="8">
         <f>'Flujo de Caja'!P23</f>
-        <v>-69801.581666666665</v>
+        <v>-69822.581666666665</v>
       </c>
       <c r="Q1" s="8">
         <f>'Flujo de Caja'!Q23</f>
-        <v>-67247.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="R1" s="8">
         <f>'Flujo de Caja'!R23</f>
-        <v>-67245.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="S1" s="8">
         <f>'Flujo de Caja'!S23</f>
-        <v>-67244.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="T1" s="8">
         <f>'Flujo de Caja'!T23</f>
-        <v>-67242.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="U1" s="8">
         <f>'Flujo de Caja'!U23</f>
-        <v>-67241.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="V1" s="8">
         <f>'Flujo de Caja'!V23</f>
-        <v>-67239.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="W1" s="8">
         <f>'Flujo de Caja'!W23</f>
-        <v>-67238.044999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="X1" s="8">
         <f>'Flujo de Caja'!X23</f>
-        <v>-67236.544999999998</v>
+        <v>-67269.544999999998</v>
       </c>
       <c r="Y1" s="8">
         <f>'Flujo de Caja'!Y23</f>
-        <v>-70288.081666666665</v>
+        <v>-70322.581666666665</v>
       </c>
       <c r="Z1" s="8">
         <f>'Flujo de Caja'!Z23</f>
-        <v>1500000</v>
+        <v>1687159.6400000001</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -3467,103 +3497,103 @@
       </c>
       <c r="B3" s="5">
         <f>B1</f>
-        <v>-87921.21166666667</v>
+        <v>-187921.21166666667</v>
       </c>
       <c r="C3" s="5">
         <f>B3+C1</f>
-        <v>-155189.25666666665</v>
+        <v>-255190.75666666665</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:Z3" si="0">C3+D1</f>
-        <v>-222455.80166666664</v>
+        <v>-322460.30166666664</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>-289720.84666666662</v>
+        <v>-389729.84666666662</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>-356984.3916666666</v>
+        <v>-456999.3916666666</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>-424246.43666666659</v>
+        <v>-524268.93666666659</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>-491506.98166666657</v>
+        <v>-591538.48166666657</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>-561319.06333333324</v>
+        <v>-661361.06333333324</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="0"/>
-        <v>-628576.60833333328</v>
+        <v>-728630.60833333328</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="0"/>
-        <v>-695832.65333333332</v>
+        <v>-795900.15333333332</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="0"/>
-        <v>-763087.19833333336</v>
+        <v>-863169.69833333336</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="0"/>
-        <v>-833785.2433333334</v>
+        <v>-933884.2433333334</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="0"/>
-        <v>598963.21166666667</v>
+        <v>498846.21166666667</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" si="0"/>
-        <v>531713.16666666663</v>
+        <v>431576.66666666669</v>
       </c>
       <c r="P3" s="5">
         <f t="shared" si="0"/>
-        <v>461911.58499999996</v>
+        <v>361754.08500000002</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" si="0"/>
-        <v>394664.54</v>
+        <v>294484.54000000004</v>
       </c>
       <c r="R3" s="5">
         <f t="shared" si="0"/>
-        <v>327418.995</v>
+        <v>227214.99500000005</v>
       </c>
       <c r="S3" s="5">
         <f t="shared" si="0"/>
-        <v>260174.95</v>
+        <v>159945.45000000007</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="0"/>
-        <v>192932.40500000003</v>
+        <v>92675.905000000072</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" si="0"/>
-        <v>125691.36000000003</v>
+        <v>25406.360000000073</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" si="0"/>
-        <v>58451.815000000031</v>
+        <v>-41863.184999999925</v>
       </c>
       <c r="W3" s="5">
         <f t="shared" si="0"/>
-        <v>-8786.2299999999668</v>
+        <v>-109132.72999999992</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="0"/>
-        <v>-76022.774999999965</v>
+        <v>-176402.27499999991</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="0"/>
-        <v>-146310.85666666663</v>
+        <v>-246724.85666666657</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
-        <v>1353689.1433333333</v>
+        <v>1440434.7833333337</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -3580,39 +3610,39 @@
       </c>
       <c r="B7" s="5">
         <f>B3</f>
-        <v>-87921.21166666667</v>
+        <v>-187921.21166666667</v>
       </c>
       <c r="E7" s="5">
         <f>E3/(1+B5)</f>
-        <v>-267887.97657574352</v>
+        <v>-360360.46848512866</v>
       </c>
       <c r="H7" s="5">
         <f>H3/(1+B5)^2</f>
-        <v>-420219.92764596752</v>
+        <v>-505743.08654348511</v>
       </c>
       <c r="K7" s="5">
         <f>K3/(1+B5)^3</f>
-        <v>-550079.21304703911</v>
+        <v>-629185.95140991337</v>
       </c>
       <c r="N7" s="5">
         <f>N3/(1+B5)^4</f>
-        <v>437818.44457304658</v>
+        <v>364636.87288127199</v>
       </c>
       <c r="Q7" s="5">
         <f>Q3/(1+B5)^5</f>
-        <v>266744.50927746232</v>
+        <v>199035.19609868986</v>
       </c>
       <c r="T7" s="5">
         <f>T3/(1+B5)^6</f>
-        <v>120571.8807623741</v>
+        <v>57917.218039163075</v>
       </c>
       <c r="W7" s="5">
         <f>W3/(1+B5)^7</f>
-        <v>-5077.1138396961087</v>
+        <v>-63062.234183127504</v>
       </c>
       <c r="Z7" s="5">
         <f>Z3/(1+B5)^8</f>
-        <v>723280.49866417598</v>
+        <v>769628.97539174161</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -3650,15 +3680,95 @@
       </c>
       <c r="B10" s="8">
         <f>SUM(B7:Z7)</f>
-        <v>217229.89050194598</v>
+        <v>-355054.68987745466</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="20">
-        <v>0.12255000000000001</v>
+      <c r="B12" s="21">
+        <v>2.6460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="5">
+        <f>B14*(1+$B$5)</f>
+        <v>108149.99999999999</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
+        <f t="shared" ref="F14:Z14" si="1">E14*(1+$B$5)</f>
+        <v>116964.22499999998</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <f t="shared" si="1"/>
+        <v>126496.80933749996</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>136806.2992985062</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
+        <f t="shared" si="1"/>
+        <v>147956.01269133444</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
+        <f t="shared" si="1"/>
+        <v>160014.42772567819</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5">
+        <f t="shared" si="1"/>
+        <v>173055.60358532096</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5">
+        <f t="shared" si="1"/>
+        <v>187159.63527752459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="Z15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
